--- a/my1stProject/ahbbus22/ahbbus22.xlsx
+++ b/my1stProject/ahbbus22/ahbbus22.xlsx
@@ -5,48 +5,53 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoC\demo\ahbbus22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\git\hello-world\my1stProject\ahbbus22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
-    <sheet name="IOport" sheetId="10" r:id="rId2"/>
-    <sheet name="Register" sheetId="15" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="11" r:id="rId2"/>
+    <sheet name="IOport" sheetId="10" r:id="rId3"/>
     <sheet name="Interfaces " sheetId="13" r:id="rId4"/>
-    <sheet name="Electrical" sheetId="18" r:id="rId5"/>
-    <sheet name="Views" sheetId="17" r:id="rId6"/>
-    <sheet name="Parameters" sheetId="11" r:id="rId7"/>
-    <sheet name="Enumeration " sheetId="12" r:id="rId8"/>
-    <sheet name="Physical" sheetId="19" r:id="rId9"/>
-    <sheet name="ids_template" sheetId="16" r:id="rId10"/>
+    <sheet name="AddressSpaces" sheetId="20" r:id="rId5"/>
+    <sheet name="Register" sheetId="15" r:id="rId6"/>
+    <sheet name="Electrical" sheetId="18" r:id="rId7"/>
+    <sheet name="Physical" sheetId="19" r:id="rId8"/>
+    <sheet name="Enumeration " sheetId="12" r:id="rId9"/>
+    <sheet name="Views" sheetId="17" r:id="rId10"/>
+    <sheet name="ids_template" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="analog_i" localSheetId="7">#REF!</definedName>
+    <definedName name="analog_i" localSheetId="4">#REF!</definedName>
+    <definedName name="analog_i" localSheetId="8">#REF!</definedName>
     <definedName name="analog_i" localSheetId="0">#REF!</definedName>
     <definedName name="analog_i" localSheetId="3">#REF!</definedName>
+    <definedName name="analog_i" localSheetId="2">#REF!</definedName>
     <definedName name="analog_i" localSheetId="1">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="6">#REF!</definedName>
     <definedName name="analog_i">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="7">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="4">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="8">#REF!</definedName>
     <definedName name="analog_v" localSheetId="0">#REF!</definedName>
     <definedName name="analog_v" localSheetId="3">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="2">#REF!</definedName>
     <definedName name="analog_v" localSheetId="1">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="6">#REF!</definedName>
     <definedName name="analog_v">#REF!</definedName>
-    <definedName name="digital" localSheetId="7">#REF!</definedName>
+    <definedName name="digital" localSheetId="4">#REF!</definedName>
+    <definedName name="digital" localSheetId="8">#REF!</definedName>
     <definedName name="digital" localSheetId="0">#REF!</definedName>
     <definedName name="digital" localSheetId="3">#REF!</definedName>
+    <definedName name="digital" localSheetId="2">#REF!</definedName>
     <definedName name="digital" localSheetId="1">#REF!</definedName>
-    <definedName name="digital" localSheetId="6">#REF!</definedName>
     <definedName name="digital">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="7">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="4">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="8">#REF!</definedName>
     <definedName name="vsupply" localSheetId="0">#REF!</definedName>
     <definedName name="vsupply" localSheetId="3">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="2">#REF!</definedName>
     <definedName name="vsupply" localSheetId="1">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="6">#REF!</definedName>
     <definedName name="vsupply">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -59,6 +64,88 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Avdhesh</author>
+    <author>gopal@agnisys.com</author>
+  </authors>
+  <commentList>
+    <comment ref="F43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Avdhesh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+{id=abcd}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gopal@agnisys.com </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>encoding=BaseAddressChoices</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>gopal@agnisys.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+encoding=BaseAddressChoices</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>shashank</author>
@@ -92,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D161" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D162" authorId="0" shapeId="0">
+    <comment ref="D176" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0" shapeId="0">
+    <comment ref="D177" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0">
+    <comment ref="D178" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="613">
   <si>
     <t>Component Name</t>
   </si>
@@ -860,9 +947,6 @@
     <t>$pc_y</t>
   </si>
   <si>
-    <t>AMS Discipline</t>
-  </si>
-  <si>
     <t>$ams_decsipline</t>
   </si>
   <si>
@@ -1169,9 +1253,6 @@
     <t>$drefpath</t>
   </si>
   <si>
-    <t>Specification Type</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -1232,13 +1313,7 @@
     <t>Chip</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t xml:space="preserve">Block  </t>
-  </si>
-  <si>
-    <t>Register</t>
   </si>
   <si>
     <r>
@@ -1256,21 +1331,6 @@
     </r>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Sw access</t>
-  </si>
-  <si>
-    <t>Hw access</t>
-  </si>
-  <si>
-    <t>Field default</t>
-  </si>
-  <si>
-    <t>Bits</t>
-  </si>
-  <si>
     <t>Offset</t>
   </si>
   <si>
@@ -1847,9 +1907,6 @@
     <t>htrans_mst0[1:0]</t>
   </si>
   <si>
-    <t>haddr_mst0[31:0]</t>
-  </si>
-  <si>
     <t>hsize_mst0[2:0]</t>
   </si>
   <si>
@@ -2025,13 +2082,162 @@
   </si>
   <si>
     <t>[31:16]</t>
+  </si>
+  <si>
+    <t>BusInterfaceType</t>
+  </si>
+  <si>
+    <t>mirroredSystem</t>
+  </si>
+  <si>
+    <t>mirroredMaster</t>
+  </si>
+  <si>
+    <t>RemapDescription</t>
+  </si>
+  <si>
+    <t>Remap Slave 0 Starting Address:
+{remap_state=remapped}</t>
+  </si>
+  <si>
+    <t>0x1_000_0000</t>
+  </si>
+  <si>
+    <t>defaultid4490218</t>
+  </si>
+  <si>
+    <t>defaultid4490216</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>addressUnit</t>
+  </si>
+  <si>
+    <t>baseAddress</t>
+  </si>
+  <si>
+    <t>addressOffset</t>
+  </si>
+  <si>
+    <t>addressBlock</t>
+  </si>
+  <si>
+    <t>localMemoryMap</t>
+  </si>
+  <si>
+    <t>addressSpace</t>
+  </si>
+  <si>
+    <t>AddressSpaces</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,AHB_rtl,r2p0_6+C70</t>
+  </si>
+  <si>
+    <t>Specification_Type</t>
+  </si>
+  <si>
+    <t>AMS_Discipline</t>
+  </si>
+  <si>
+    <t>haddr_mst0 [31:0]</t>
+  </si>
+  <si>
+    <t>Slave 0 Starting Address:
+}</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>$remapdesc</t>
+  </si>
+  <si>
+    <t>$bus_interface_type</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>0x000100005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{avdhesh=true}sadhashdjksadjas jsahdjhasdj </t>
+  </si>
+  <si>
+    <t>nhb b</t>
+  </si>
+  <si>
+    <t>dddddd</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>encoding=BaseAddressChoices</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>mirroredSlave</t>
+  </si>
+  <si>
+    <t>$address_space</t>
+  </si>
+  <si>
+    <t>localMemorymap</t>
+  </si>
+  <si>
+    <t>$local_memorymap</t>
+  </si>
+  <si>
+    <t>$address_block</t>
+  </si>
+  <si>
+    <t>$address_offset</t>
+  </si>
+  <si>
+    <t>$base_address</t>
+  </si>
+  <si>
+    <t>$address_unit</t>
+  </si>
+  <si>
+    <t>$range</t>
+  </si>
+  <si>
+    <t>$width</t>
+  </si>
+  <si>
+    <t>addressDescription</t>
+  </si>
+  <si>
+    <t>$address_description</t>
+  </si>
+  <si>
+    <t>{abc=4}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2187,6 +2393,25 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2813,7 +3038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3082,6 +3307,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3100,25 +3338,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3485,9 +3729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,25 +3743,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="A1" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3528,34 +3772,34 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="95" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="7"/>
     </row>
@@ -3571,12 +3815,12 @@
     </row>
     <row r="17" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3837,7 @@
     </row>
     <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,34 +3854,34 @@
     </row>
     <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="F35" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G35" s="130" t="s">
         <v>6</v>
@@ -3685,24 +3929,24 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="F44" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G44" s="130" t="s">
         <v>6</v>
@@ -3750,15 +3994,15 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="130" t="s">
         <v>276</v>
-      </c>
-      <c r="C53" s="130" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3785,11 +4029,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="130" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="108" t="str">
+        <f>IOport!D2</f>
+        <v>Specification_Type</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="102"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="str">
+        <f>IOport!E2</f>
+        <v>AMS_Discipline</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,7 +4147,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,8 +4188,8 @@
       <c r="C5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="172"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="37" t="s">
         <v>20</v>
       </c>
@@ -3858,8 +4201,8 @@
       <c r="C6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="172"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="37" t="s">
         <v>23</v>
       </c>
@@ -3871,8 +4214,8 @@
       <c r="C7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="172"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="37" t="s">
         <v>26</v>
       </c>
@@ -3885,8 +4228,8 @@
       <c r="C8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="172"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="179"/>
       <c r="F8" s="37" t="s">
         <v>29</v>
       </c>
@@ -3894,13 +4237,13 @@
     <row r="9" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="172"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="179"/>
       <c r="F9" s="37" t="s">
         <v>31</v>
       </c>
@@ -3913,8 +4256,8 @@
       <c r="C10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="172"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="179"/>
       <c r="F10" s="37" t="s">
         <v>34</v>
       </c>
@@ -3927,8 +4270,8 @@
       <c r="C11" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="172"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="179"/>
       <c r="F11" s="42" t="s">
         <v>37</v>
       </c>
@@ -3941,21 +4284,21 @@
       <c r="C12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="172"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" s="172"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="179"/>
       <c r="F13" s="37" t="s">
         <v>42</v>
       </c>
@@ -3967,8 +4310,8 @@
       <c r="C14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="172"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="37" t="s">
         <v>45</v>
       </c>
@@ -3980,8 +4323,8 @@
       <c r="C15" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="172"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="179"/>
       <c r="F15" s="37" t="s">
         <v>48</v>
       </c>
@@ -3993,8 +4336,8 @@
       <c r="C16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="172"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="179"/>
       <c r="F16" s="47" t="s">
         <v>51</v>
       </c>
@@ -4007,8 +4350,8 @@
       <c r="C17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="172"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="179"/>
       <c r="F17" s="47" t="s">
         <v>54</v>
       </c>
@@ -4021,8 +4364,8 @@
       <c r="C18" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="172"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="179"/>
       <c r="F18" s="47" t="s">
         <v>57</v>
       </c>
@@ -4035,8 +4378,8 @@
       <c r="C19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="172"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,8 +4390,8 @@
       <c r="C20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="172"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4058,24 +4401,24 @@
       <c r="C21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="172"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="179"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="50"/>
       <c r="C22" s="45"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="172"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="179"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="172"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="179"/>
       <c r="F23" s="47" t="s">
         <v>65</v>
       </c>
@@ -4088,8 +4431,8 @@
       <c r="C24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="172"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="179"/>
       <c r="F24" s="47" t="s">
         <v>68</v>
       </c>
@@ -4101,8 +4444,8 @@
       <c r="C25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="172"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="179"/>
       <c r="F25" s="47" t="s">
         <v>71</v>
       </c>
@@ -4115,8 +4458,8 @@
       <c r="C26" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="47" t="s">
         <v>74</v>
       </c>
@@ -4131,7 +4474,7 @@
       <c r="D27" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="172"/>
+      <c r="E27" s="179"/>
       <c r="F27" s="47" t="s">
         <v>78</v>
       </c>
@@ -4144,8 +4487,8 @@
       <c r="C28" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="172"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="179"/>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,8 +4499,8 @@
       <c r="C29" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="172"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="179"/>
       <c r="F29" s="47" t="s">
         <v>83</v>
       </c>
@@ -4165,13 +4508,13 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="172"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,8 +4525,8 @@
       <c r="C31" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="174"/>
-      <c r="E31" s="172"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="179"/>
       <c r="F31" s="47" t="s">
         <v>87</v>
       </c>
@@ -4196,8 +4539,8 @@
       <c r="C32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="172"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,8 +4551,8 @@
       <c r="C33" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="174"/>
-      <c r="E33" s="172"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="179"/>
       <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,8 +4563,8 @@
       <c r="C34" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="174"/>
-      <c r="E34" s="172"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="179"/>
       <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,8 +4575,8 @@
       <c r="C35" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="172"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="179"/>
       <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,39 +4586,39 @@
       <c r="C36" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="174"/>
-      <c r="E36" s="172"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="179"/>
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="52"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="172"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="179"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="44" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="174"/>
-      <c r="E38" s="172"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="179"/>
       <c r="F38" s="47" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="175"/>
-      <c r="E39" s="172"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="179"/>
       <c r="F39" s="47" t="s">
         <v>101</v>
       </c>
@@ -4283,7 +4626,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="44" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>102</v>
@@ -4291,14 +4634,14 @@
       <c r="D40" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="172"/>
+      <c r="E40" s="179"/>
       <c r="F40" s="47" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>105</v>
@@ -4306,7 +4649,7 @@
       <c r="D41" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="172"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="47" t="s">
         <v>106</v>
       </c>
@@ -4314,7 +4657,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="44" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C42" s="45" t="s">
         <v>107</v>
@@ -4322,20 +4665,20 @@
       <c r="D42" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="172"/>
+      <c r="E42" s="179"/>
       <c r="F42" s="47" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="44" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C43" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="176"/>
-      <c r="E43" s="172"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="179"/>
       <c r="F43" s="47" t="s">
         <v>111</v>
       </c>
@@ -4347,8 +4690,8 @@
       <c r="C44" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="177"/>
-      <c r="E44" s="172"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="179"/>
       <c r="F44" s="47" t="s">
         <v>114</v>
       </c>
@@ -4360,15 +4703,15 @@
       <c r="C45" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="177"/>
-      <c r="E45" s="172"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="179"/>
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="44"/>
       <c r="C46" s="56"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="172"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="179"/>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4378,8 +4721,8 @@
       <c r="C47" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="177"/>
-      <c r="E47" s="172"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="179"/>
       <c r="F47" s="47" t="s">
         <v>119</v>
       </c>
@@ -4391,14 +4734,14 @@
       <c r="C48" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="177"/>
-      <c r="E48" s="172"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="179"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="56"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="172"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="179"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="44" t="s">
@@ -4407,8 +4750,8 @@
       <c r="C50" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="177"/>
-      <c r="E50" s="172"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="179"/>
       <c r="F50" s="47" t="s">
         <v>124</v>
       </c>
@@ -4420,8 +4763,8 @@
       <c r="C51" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="177"/>
-      <c r="E51" s="172"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="179"/>
       <c r="F51" s="47" t="s">
         <v>127</v>
       </c>
@@ -4433,8 +4776,8 @@
       <c r="C52" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="177"/>
-      <c r="E52" s="172"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="179"/>
       <c r="F52" s="47" t="s">
         <v>130</v>
       </c>
@@ -4446,8 +4789,8 @@
       <c r="C53" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="177"/>
-      <c r="E53" s="172"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="179"/>
       <c r="F53" s="47" t="s">
         <v>133</v>
       </c>
@@ -4459,8 +4802,8 @@
       <c r="C54" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="177"/>
-      <c r="E54" s="172"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="179"/>
       <c r="F54" s="47" t="s">
         <v>136</v>
       </c>
@@ -4472,8 +4815,8 @@
       <c r="C55" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="177"/>
-      <c r="E55" s="172"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="179"/>
       <c r="F55" s="47" t="s">
         <v>139</v>
       </c>
@@ -4485,8 +4828,8 @@
       <c r="C56" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="177"/>
-      <c r="E56" s="172"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="179"/>
       <c r="F56" s="47" t="s">
         <v>142</v>
       </c>
@@ -4494,20 +4837,20 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="44"/>
       <c r="C57" s="56"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="172"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="179"/>
       <c r="F57" s="47"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="44" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C58" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="177"/>
-      <c r="E58" s="172"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="179"/>
       <c r="F58" s="47" t="s">
         <v>144</v>
       </c>
@@ -4520,8 +4863,8 @@
       <c r="C59" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="177"/>
-      <c r="E59" s="172"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="179"/>
       <c r="F59" s="47" t="s">
         <v>147</v>
       </c>
@@ -4534,8 +4877,8 @@
       <c r="C60" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="177"/>
-      <c r="E60" s="172"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="179"/>
       <c r="F60" s="47" t="s">
         <v>150</v>
       </c>
@@ -4548,8 +4891,8 @@
       <c r="C61" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="177"/>
-      <c r="E61" s="172"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="179"/>
       <c r="F61" s="47" t="s">
         <v>153</v>
       </c>
@@ -4562,8 +4905,8 @@
       <c r="C62" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="177"/>
-      <c r="E62" s="172"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="179"/>
       <c r="F62" s="47" t="s">
         <v>153</v>
       </c>
@@ -4576,8 +4919,8 @@
       <c r="C63" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="177"/>
-      <c r="E63" s="172"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="179"/>
       <c r="F63" s="47" t="s">
         <v>158</v>
       </c>
@@ -4590,8 +4933,8 @@
       <c r="C64" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="177"/>
-      <c r="E64" s="172"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="179"/>
       <c r="F64" s="47" t="s">
         <v>160</v>
       </c>
@@ -4604,8 +4947,8 @@
       <c r="C65" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="177"/>
-      <c r="E65" s="172"/>
+      <c r="D65" s="184"/>
+      <c r="E65" s="179"/>
       <c r="F65" s="47" t="s">
         <v>163</v>
       </c>
@@ -4618,8 +4961,8 @@
       <c r="C66" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="177"/>
-      <c r="E66" s="172"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="179"/>
       <c r="F66" s="47" t="s">
         <v>166</v>
       </c>
@@ -4632,8 +4975,8 @@
       <c r="C67" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="177"/>
-      <c r="E67" s="172"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="179"/>
       <c r="F67" s="47" t="s">
         <v>169</v>
       </c>
@@ -4645,8 +4988,8 @@
       <c r="C68" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="177"/>
-      <c r="E68" s="172"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="179"/>
       <c r="F68" s="47" t="s">
         <v>172</v>
       </c>
@@ -4711,13 +5054,13 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75" s="66"/>
       <c r="E75" s="67"/>
@@ -4728,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="66"/>
       <c r="E76" s="67"/>
@@ -4736,10 +5079,10 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C77" s="78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="66"/>
       <c r="E77" s="67"/>
@@ -4747,10 +5090,10 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="79" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C78" s="78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="67"/>
@@ -4768,10 +5111,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C80" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="67"/>
@@ -4779,10 +5122,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="77" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C81" s="78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="67"/>
@@ -4790,10 +5133,10 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="79" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C82" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="66"/>
       <c r="E82" s="67"/>
@@ -4801,10 +5144,10 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="79" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C83" s="78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="66"/>
       <c r="E83" s="67"/>
@@ -4851,7 +5194,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="64" t="s">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="C88" s="65" t="s">
         <v>185</v>
@@ -4884,10 +5227,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" s="65" t="s">
         <v>189</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>190</v>
       </c>
       <c r="D91" s="66"/>
       <c r="E91" s="67"/>
@@ -4898,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="C92" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D92" s="66"/>
       <c r="E92" s="67"/>
@@ -4913,7 +5256,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" s="64"/>
       <c r="C94" s="65"/>
@@ -4923,10 +5266,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C95" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D95" s="66"/>
       <c r="E95" s="67"/>
@@ -4934,10 +5277,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="65" t="s">
         <v>194</v>
-      </c>
-      <c r="C96" s="65" t="s">
-        <v>195</v>
       </c>
       <c r="D96" s="66"/>
       <c r="E96" s="67"/>
@@ -4945,10 +5288,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="65" t="s">
         <v>196</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>197</v>
       </c>
       <c r="D97" s="66"/>
       <c r="E97" s="67"/>
@@ -4956,10 +5299,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="65" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="65" t="s">
-        <v>199</v>
       </c>
       <c r="D98" s="66"/>
       <c r="E98" s="67"/>
@@ -4967,10 +5310,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="65" t="s">
         <v>200</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>201</v>
       </c>
       <c r="D99" s="66"/>
       <c r="E99" s="67"/>
@@ -4978,10 +5321,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="65" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" s="65" t="s">
-        <v>203</v>
       </c>
       <c r="D100" s="66"/>
       <c r="E100" s="67"/>
@@ -4989,10 +5332,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="65" t="s">
         <v>204</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>205</v>
       </c>
       <c r="D101" s="66"/>
       <c r="E101" s="67"/>
@@ -5000,10 +5343,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="65" t="s">
         <v>206</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>207</v>
       </c>
       <c r="D102" s="66"/>
       <c r="E102" s="67"/>
@@ -5011,10 +5354,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="65" t="s">
         <v>208</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>209</v>
       </c>
       <c r="D103" s="66"/>
       <c r="E103" s="67"/>
@@ -5022,10 +5365,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>211</v>
       </c>
       <c r="D104" s="66"/>
       <c r="E104" s="67"/>
@@ -5033,10 +5376,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="65" t="s">
         <v>212</v>
-      </c>
-      <c r="C105" s="65" t="s">
-        <v>213</v>
       </c>
       <c r="D105" s="66"/>
       <c r="E105" s="67"/>
@@ -5044,10 +5387,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C106" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="66"/>
       <c r="E106" s="67"/>
@@ -5068,7 +5411,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D108" s="66"/>
       <c r="E108" s="67"/>
@@ -5076,10 +5419,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="64" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C109" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D109" s="66"/>
       <c r="E109" s="67"/>
@@ -5094,7 +5437,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="64"/>
       <c r="C111" s="65"/>
@@ -5104,10 +5447,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" s="64" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C112" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D112" s="66"/>
       <c r="E112" s="67"/>
@@ -5115,10 +5458,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D113" s="66"/>
       <c r="E113" s="67"/>
@@ -5126,10 +5469,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C114" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D114" s="66"/>
       <c r="E114" s="67"/>
@@ -5137,10 +5480,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C115" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D115" s="66"/>
       <c r="E115" s="67"/>
@@ -5148,10 +5491,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C116" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D116" s="66"/>
       <c r="E116" s="67"/>
@@ -5159,10 +5502,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="64" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C117" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D117" s="66"/>
       <c r="E117" s="67"/>
@@ -5170,10 +5513,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C118" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D118" s="66"/>
       <c r="E118" s="67"/>
@@ -5181,60 +5524,60 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C119" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="67"/>
       <c r="F119" s="47"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="64"/>
-      <c r="C120" s="65"/>
+      <c r="B120" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C120" s="65" t="s">
+        <v>590</v>
+      </c>
       <c r="D120" s="66"/>
       <c r="E120" s="67"/>
       <c r="F120" s="47"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="B121" s="64"/>
-      <c r="C121" s="65"/>
+      <c r="B121" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C121" s="65" t="s">
+        <v>589</v>
+      </c>
       <c r="D121" s="66"/>
       <c r="E121" s="67"/>
       <c r="F121" s="47"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C122" s="65" t="s">
-        <v>339</v>
-      </c>
+      <c r="B122" s="64"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="66"/>
       <c r="E122" s="67"/>
       <c r="F122" s="47"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="65" t="s">
-        <v>340</v>
-      </c>
+      <c r="A123" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B123" s="64"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="66"/>
       <c r="E123" s="67"/>
       <c r="F123" s="47"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="64" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="C124" s="65" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D124" s="66"/>
       <c r="E124" s="67"/>
@@ -5242,10 +5585,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C125" s="65" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D125" s="66"/>
       <c r="E125" s="67"/>
@@ -5253,10 +5596,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="64" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="C126" s="65" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D126" s="66"/>
       <c r="E126" s="67"/>
@@ -5264,10 +5607,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="64" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="C127" s="65" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D127" s="66"/>
       <c r="E127" s="67"/>
@@ -5275,10 +5618,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="64" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C128" s="65" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="67"/>
@@ -5286,10 +5629,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="64" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C129" s="65" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D129" s="66"/>
       <c r="E129" s="67"/>
@@ -5297,10 +5640,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="64" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C130" s="65" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D130" s="66"/>
       <c r="E130" s="67"/>
@@ -5308,33 +5651,38 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="64" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="C131" s="65" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D131" s="66"/>
       <c r="E131" s="67"/>
       <c r="F131" s="47"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="64"/>
-      <c r="C132" s="65"/>
+      <c r="B132" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C132" s="65" t="s">
+        <v>341</v>
+      </c>
       <c r="D132" s="66"/>
       <c r="E132" s="67"/>
       <c r="F132" s="47"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="64"/>
-      <c r="C133" s="65"/>
+      <c r="B133" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>342</v>
+      </c>
       <c r="D133" s="66"/>
       <c r="E133" s="67"/>
       <c r="F133" s="47"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="43" t="s">
-        <v>352</v>
-      </c>
       <c r="B134" s="64"/>
       <c r="C134" s="65"/>
       <c r="D134" s="66"/>
@@ -5342,33 +5690,28 @@
       <c r="F134" s="47"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="C135" s="65" t="s">
-        <v>354</v>
-      </c>
+      <c r="B135" s="64"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="66"/>
       <c r="E135" s="67"/>
       <c r="F135" s="47"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="C136" s="65" t="s">
-        <v>355</v>
-      </c>
+      <c r="A136" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B136" s="64"/>
+      <c r="C136" s="65"/>
       <c r="D136" s="66"/>
       <c r="E136" s="67"/>
       <c r="F136" s="47"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="64" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C137" s="65" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D137" s="66"/>
       <c r="E137" s="67"/>
@@ -5376,10 +5719,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="64" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C138" s="65" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D138" s="66"/>
       <c r="E138" s="67"/>
@@ -5387,10 +5730,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="64" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C139" s="65" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D139" s="66"/>
       <c r="E139" s="67"/>
@@ -5398,60 +5741,60 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="64" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C140" s="65" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D140" s="66"/>
       <c r="E140" s="67"/>
       <c r="F140" s="47"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="64"/>
-      <c r="C141" s="65"/>
+      <c r="B141" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" s="65" t="s">
+        <v>350</v>
+      </c>
       <c r="D141" s="66"/>
       <c r="E141" s="67"/>
       <c r="F141" s="47"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="B142" s="64"/>
-      <c r="C142" s="65"/>
+      <c r="B142" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="65" t="s">
+        <v>351</v>
+      </c>
       <c r="D142" s="66"/>
       <c r="E142" s="67"/>
       <c r="F142" s="47"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="C143" s="65" t="s">
-        <v>363</v>
-      </c>
+      <c r="B143" s="64"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="66"/>
       <c r="E143" s="67"/>
       <c r="F143" s="47"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="C144" s="65" t="s">
-        <v>364</v>
-      </c>
+      <c r="A144" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="64"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="66"/>
       <c r="E144" s="67"/>
       <c r="F144" s="47"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="64" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C145" s="65" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="67"/>
@@ -5459,10 +5802,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="64" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C146" s="65" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D146" s="66"/>
       <c r="E146" s="67"/>
@@ -5470,10 +5813,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="64" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C147" s="65" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D147" s="66"/>
       <c r="E147" s="67"/>
@@ -5481,53 +5824,53 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="64" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C148" s="65" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D148" s="66"/>
       <c r="E148" s="67"/>
       <c r="F148" s="47"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="B149" s="64"/>
-      <c r="C149" s="65"/>
+      <c r="B149" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="C149" s="65" t="s">
+        <v>359</v>
+      </c>
       <c r="D149" s="66"/>
       <c r="E149" s="67"/>
       <c r="F149" s="47"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="64" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="C150" s="65" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="D150" s="66"/>
       <c r="E150" s="67"/>
       <c r="F150" s="47"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C151" s="65" t="s">
-        <v>283</v>
-      </c>
+      <c r="A151" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="64"/>
+      <c r="C151" s="65"/>
       <c r="D151" s="66"/>
       <c r="E151" s="67"/>
       <c r="F151" s="47"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="64" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="C152" s="65" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D152" s="66"/>
       <c r="E152" s="67"/>
@@ -5535,10 +5878,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="64" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C153" s="65" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D153" s="66"/>
       <c r="E153" s="67"/>
@@ -5546,10 +5889,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="64" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C154" s="65" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D154" s="66"/>
       <c r="E154" s="67"/>
@@ -5557,25 +5900,33 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="64" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C155" s="65" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D155" s="66"/>
       <c r="E155" s="67"/>
       <c r="F155" s="47"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="64"/>
-      <c r="C156" s="65"/>
+      <c r="B156" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="65" t="s">
+        <v>288</v>
+      </c>
       <c r="D156" s="66"/>
       <c r="E156" s="67"/>
       <c r="F156" s="47"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="64"/>
-      <c r="C157" s="65"/>
+      <c r="B157" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="C157" s="65" t="s">
+        <v>290</v>
+      </c>
       <c r="D157" s="66"/>
       <c r="E157" s="67"/>
       <c r="F157" s="47"/>
@@ -5587,137 +5938,274 @@
       <c r="E158" s="67"/>
       <c r="F158" s="47"/>
     </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="64"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="47"/>
+    </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="178" t="s">
+      <c r="A160" t="s">
+        <v>582</v>
+      </c>
+      <c r="B160" s="64"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="47"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C161" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="D161" s="66"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="47"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="C162" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="D162" s="66"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="47"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="C163" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="D163" s="66"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="47"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="C164" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="D164" s="66"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="47"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="C165" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="D165" s="66"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="47"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C166" s="65" t="s">
+        <v>607</v>
+      </c>
+      <c r="D166" s="66"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="47"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="C167" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="D167" s="66"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="47"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C168" s="65" t="s">
+        <v>609</v>
+      </c>
+      <c r="D168" s="66"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="47"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="C169" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="D169" s="66"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="47"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="64"/>
+      <c r="C170" s="65"/>
+      <c r="D170" s="66"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="47"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="64"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="47"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="64"/>
+      <c r="C172" s="65"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="47"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="185" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="186"/>
+      <c r="B175" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B160" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="179"/>
-      <c r="B161" s="35" t="s">
+      <c r="C175" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C161" s="45" t="s">
+      <c r="D175" s="68"/>
+      <c r="E175" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D161" s="68"/>
-      <c r="E161" s="68" t="s">
+      <c r="F175" s="47"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="186"/>
+      <c r="B176" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="F161" s="47"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="179"/>
-      <c r="B162" s="44" t="s">
+      <c r="C176" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C162" s="45" t="s">
+      <c r="D176" s="68"/>
+      <c r="E176" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F176" s="47"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="186"/>
+      <c r="B177" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D162" s="68"/>
-      <c r="E162" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F162" s="47"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="179"/>
-      <c r="B163" s="35" t="s">
+      <c r="C177" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="D177" s="68"/>
+      <c r="E177" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F177" s="47"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="186"/>
+      <c r="B178" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F163" s="47"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="179"/>
-      <c r="B164" s="35" t="s">
+      <c r="C178" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D178" s="68"/>
+      <c r="E178" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F178" s="47"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="69"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="69"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="69"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F164" s="47"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="69"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="69"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="69"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C169" s="70" t="s">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="71" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D170" s="71" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D171" s="71" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="71" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D172" s="71" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="72" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D173" s="72" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D174" s="37" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="73"/>
+      <c r="E189" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D175" s="73"/>
-      <c r="E175" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="74"/>
+      <c r="E190" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="74"/>
-      <c r="E176" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="94"/>
+      <c r="E191" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="94"/>
-      <c r="E177" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5726,7 +6214,7 @@
     <mergeCell ref="E5:E68"/>
     <mergeCell ref="D28:D39"/>
     <mergeCell ref="D43:D68"/>
-    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A174:A178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5736,11 +6224,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="102"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="131"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="139">
+        <v>3</v>
+      </c>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E9">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,22 +6442,22 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="146" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="153" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
@@ -5772,11 +6466,13 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>189</v>
+      <c r="D2" s="15" t="str">
+        <f>ids_template!B88</f>
+        <v>Specification_Type</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f>ids_template!B91</f>
+        <v>AMS_Discipline</v>
       </c>
       <c r="F2" s="130" t="s">
         <v>11</v>
@@ -5784,33 +6480,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5818,10 +6514,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5829,10 +6525,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5840,10 +6536,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5851,10 +6547,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5862,10 +6558,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5873,10 +6569,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5884,10 +6580,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5895,10 +6591,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5906,23 +6602,23 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5930,10 +6626,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5941,10 +6637,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5952,10 +6648,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5963,10 +6659,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5974,10 +6670,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5985,10 +6681,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5996,10 +6692,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6007,23 +6703,23 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -6031,10 +6727,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6042,10 +6738,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -6053,10 +6749,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6064,10 +6760,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6075,10 +6771,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -6086,10 +6782,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -6097,10 +6793,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -6108,10 +6804,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6119,21 +6815,23 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>499</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>588</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -6141,10 +6839,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -6152,10 +6850,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -6163,10 +6861,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -6174,10 +6872,10 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -6185,10 +6883,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6196,10 +6894,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -6207,10 +6905,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -6218,10 +6916,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -6229,62 +6927,62 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -6292,10 +6990,10 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -6303,10 +7001,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -6314,10 +7012,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -6325,10 +7023,10 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -6336,10 +7034,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -6347,10 +7045,10 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6358,10 +7056,10 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -6369,10 +7067,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -6380,10 +7078,10 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -6391,10 +7089,10 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -6402,54 +7100,54 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="99" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C61" s="100" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D61" s="100"/>
       <c r="E61" s="100"/>
       <c r="F61" s="101" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6466,13 +7164,1484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="140"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>567</v>
+      </c>
+      <c r="J2" s="135" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="144" t="s">
+        <v>599</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" t="s">
+        <v>593</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H45" s="144" t="s">
+        <v>595</v>
+      </c>
+      <c r="I45" s="144" t="s">
+        <v>596</v>
+      </c>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" ht="60" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" collapsed="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39:I40 H46:I46">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J78">
+      <formula1>"master,slave,system,mirroredSlave,mirroredMaster,mirroredSystem,monitor"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Enumeration '!$B$4:$B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>H62:H63 H43:H44</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="157" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="141"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="142" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="142"/>
+      <c r="B4" s="142" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="F4" s="142"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" s="142" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="142">
+        <v>4096</v>
+      </c>
+      <c r="H5" s="142">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,67 +8657,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="151"/>
+      <c r="A1" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="159"/>
       <c r="C1" s="152"/>
-      <c r="D1" s="144" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="D1" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="134" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="134" t="s">
-        <v>318</v>
-      </c>
-      <c r="G3" s="134" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="134" t="s">
-        <v>321</v>
-      </c>
-      <c r="J3" s="134" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3" s="134" t="s">
-        <v>17</v>
+      <c r="A3" s="134" t="str">
+        <f>ids_template!B9</f>
+        <v>Chip</v>
+      </c>
+      <c r="B3" s="134" t="str">
+        <f>ids_template!B13</f>
+        <v xml:space="preserve">Block  </v>
+      </c>
+      <c r="C3" s="134" t="str">
+        <f>ids_template!B23</f>
+        <v xml:space="preserve">Register </v>
+      </c>
+      <c r="D3" s="134" t="str">
+        <f>ids_template!B30</f>
+        <v>Width</v>
+      </c>
+      <c r="E3" s="134" t="str">
+        <f>ids_template!B38</f>
+        <v xml:space="preserve">Field  </v>
+      </c>
+      <c r="F3" s="134" t="str">
+        <f>ids_template!B40</f>
+        <v xml:space="preserve">Sw access </v>
+      </c>
+      <c r="G3" s="134" t="str">
+        <f>ids_template!B42</f>
+        <v xml:space="preserve">Hw access </v>
+      </c>
+      <c r="H3" s="143" t="str">
+        <f>ids_template!B41</f>
+        <v xml:space="preserve">Field default  </v>
+      </c>
+      <c r="I3" s="134" t="str">
+        <f>ids_template!B39</f>
+        <v xml:space="preserve">Bits </v>
+      </c>
+      <c r="J3" s="134" t="str">
+        <f>ids_template!B58</f>
+        <v>Offset</v>
+      </c>
+      <c r="K3" s="134" t="str">
+        <f>ids_template!B64</f>
+        <v>Description</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -6556,18 +8736,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -6576,12 +8756,12 @@
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -6590,7 +8770,7 @@
         <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6603,1172 +8783,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49:D52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="144" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="H2" s="135" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="18"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="18"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45:H46 H39:H40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7785,58 +8806,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
-        <v>295</v>
+      <c r="A1" s="151" t="s">
+        <v>293</v>
       </c>
       <c r="B1" s="152"/>
-      <c r="C1" s="144" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="C1" s="149" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="134" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" s="134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="134" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K2" s="134" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L2" s="134" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" s="136" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="156"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7850,10 +8871,10 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="113"/>
       <c r="G4" s="114"/>
       <c r="H4" s="115"/>
@@ -7864,10 +8885,10 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="113"/>
       <c r="G5" s="114"/>
       <c r="H5" s="114"/>
@@ -7878,10 +8899,10 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="113"/>
       <c r="G6" s="114"/>
       <c r="H6" s="118"/>
@@ -7892,10 +8913,10 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="113"/>
       <c r="G7" s="119"/>
       <c r="H7" s="118"/>
@@ -7906,10 +8927,10 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="113"/>
       <c r="G8" s="119"/>
       <c r="H8" s="118"/>
@@ -7920,7 +8941,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="91"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7934,7 +8955,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7948,7 +8969,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7962,9 +8983,9 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="158"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
       <c r="G12" s="114"/>
@@ -7976,9 +8997,9 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="157"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="158"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
       <c r="G13" s="114"/>
@@ -7990,9 +9011,9 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="157"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="158"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
       <c r="G14" s="114"/>
@@ -8004,9 +9025,9 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="157"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="158"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
       <c r="G15" s="114"/>
@@ -8018,9 +9039,9 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="157"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="158"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
       <c r="G16" s="114"/>
@@ -8032,9 +9053,9 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="158"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
       <c r="G17" s="114"/>
@@ -8046,9 +9067,9 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="157"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="158"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
       <c r="G18" s="114"/>
@@ -8060,9 +9081,9 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="157"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="158"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
       <c r="G19" s="114"/>
@@ -8138,599 +9159,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="148" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="130" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="102"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="148" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="130" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="131"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="139">
-        <v>3</v>
-      </c>
-      <c r="E10" s="131"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="132"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E9">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
-        <v>561</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8741,38 +9175,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="146" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="144" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="A1" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A3" s="127" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>300</v>
-      </c>
       <c r="E5" s="137" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8783,189 +9217,189 @@
     </row>
     <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="163" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="165"/>
+        <v>327</v>
+      </c>
+      <c r="C9" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="172"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="167"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="174"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="169"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="176"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="176"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="169"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="176"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="169"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="176"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="169"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="176"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="169"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="176"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="169"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="176"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="169"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="176"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="99"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="162"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="169"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="127" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="E23" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="83" t="s">
-        <v>274</v>
-      </c>
       <c r="F23" s="83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G23" s="83" t="s">
         <v>17</v>
@@ -9022,4 +9456,288 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>